--- a/GWC/updated_GWTC.xlsx
+++ b/GWC/updated_GWTC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ9"/>
+  <dimension ref="A1:AQ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,12 +653,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GW190412-v1</t>
+          <t>GW191103_012549-v1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GW190412</t>
+          <t>GW191103_012549</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -666,191 +666,253 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>O3_Discovery_Papers</t>
+          <t>GWTC-3-confident</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1239082262.2</v>
+        <v>1256779567.5</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/o3_eventdata_docs</t>
+          <t>/GWTC-3/</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://gwosc.org/eventapi/json/O3_Discovery_Papers/GW190412/v1</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
+          <t>https://gwosc.org/eventapi/json/GWTC-3-confident/GW191103_012549/v1</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="N2" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>990</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-470</v>
+      </c>
+      <c r="S2" t="n">
+        <v>500</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="W2" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.66</v>
+      </c>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
+      <c r="AF2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.46</v>
+      </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>0.94318</v>
+      </c>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
+      <c r="AO2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GW190412-v2</t>
+          <t>GW191105_143521-v1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GW190412</t>
+          <t>GW191105_143521</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>O3_Discovery_Papers</t>
+          <t>GWTC-3-confident</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1239082262.2</v>
+        <v>1256999739.9</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/o3_eventdata_docs/</t>
+          <t>/GWTC-3/</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://gwosc.org/eventapi/json/O3_Discovery_Papers/GW190412/v2</t>
+          <t>https://gwosc.org/eventapi/json/GWTC-3-confident/GW191105_143521/v1</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>30.1</v>
+        <v>10.7</v>
       </c>
       <c r="I3" t="n">
-        <v>-5.3</v>
+        <v>-1.6</v>
       </c>
       <c r="J3" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="K3" t="n">
-        <v>8.300000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.9</v>
+        <v>-1.9</v>
       </c>
       <c r="M3" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="N3" t="n">
-        <v>19</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>740</v>
+        <v>1150</v>
       </c>
       <c r="R3" t="n">
-        <v>-160</v>
+        <v>-480</v>
       </c>
       <c r="S3" t="n">
-        <v>130</v>
+        <v>430</v>
       </c>
       <c r="T3" t="n">
-        <v>0.25</v>
+        <v>-0.02</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.11</v>
+        <v>-0.09</v>
       </c>
       <c r="V3" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="W3" t="n">
-        <v>38.40000000000001</v>
+        <v>18.4</v>
       </c>
       <c r="X3" t="n">
-        <v>-3.9</v>
+        <v>-1.3</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="Z3" t="n">
-        <v>13.3</v>
+        <v>7.82</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.4</v>
+        <v>-0.45</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.3</v>
-      </c>
+        <v>0.61</v>
+      </c>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="n">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0.03</v>
+        <v>-0.09</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AI3" t="inlineStr"/>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.012</v>
+      </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>0.99</v>
+      </c>
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
+      <c r="AO3" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GW190425-v1</t>
+          <t>GW191109_010717-v1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GW190425</t>
+          <t>GW191109_010717</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -858,122 +920,126 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>O3_Discovery_Papers</t>
+          <t>GWTC-3-confident</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1240215503</v>
+        <v>1257296855.2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/o3_eventdata_docs/</t>
+          <t>/GWTC-3/</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://gwosc.org/eventapi/json/O3_Discovery_Papers/GW190425/v1</t>
+          <t>https://gwosc.org/eventapi/json/GWTC-3-confident/GW191109_010717/v1</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1.74</v>
+        <v>65</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.09</v>
+        <v>-11</v>
       </c>
       <c r="J4" t="n">
-        <v>0.17</v>
+        <v>11</v>
       </c>
       <c r="K4" t="n">
-        <v>1.56</v>
+        <v>47</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.14</v>
+        <v>-13</v>
       </c>
       <c r="M4" t="n">
-        <v>0.08</v>
+        <v>15</v>
       </c>
       <c r="N4" t="n">
-        <v>12.46</v>
+        <v>17.3</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.43</v>
+        <v>-0.5</v>
       </c>
       <c r="P4" t="n">
-        <v>0.29</v>
+        <v>0.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>159</v>
+        <v>1290</v>
       </c>
       <c r="R4" t="n">
-        <v>-72</v>
+        <v>-650</v>
       </c>
       <c r="S4" t="n">
-        <v>69</v>
+        <v>1130</v>
       </c>
       <c r="T4" t="n">
-        <v>0.012</v>
+        <v>-0.29</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.013</v>
+        <v>-0.31</v>
       </c>
       <c r="V4" t="n">
-        <v>0.015</v>
+        <v>0.42</v>
       </c>
       <c r="W4" t="n">
-        <v>3.3</v>
+        <v>112</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.1</v>
+        <v>-16</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1</v>
+        <v>20</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.44</v>
+        <v>47.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.02</v>
+        <v>-7.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1.4868</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>-0.0003</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.0003</v>
-      </c>
+        <v>9.6</v>
+      </c>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="n">
-        <v>0.04</v>
+        <v>0.25</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0.02</v>
+        <v>-0.12</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AI4" t="inlineStr"/>
+        <v>0.18</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.00018</v>
+      </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>0.99</v>
+      </c>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
+      <c r="AO4" t="n">
+        <v>107</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-15</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GW190521-v1</t>
+          <t>GW191113_071753-v1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GW190521</t>
+          <t>GW191113_071753</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -981,191 +1047,253 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>O3_Discovery_Papers</t>
+          <t>GWTC-3-confident</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1242442967.4</v>
+        <v>1257664691.8</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/o3_eventdata_docs/</t>
+          <t>/GWTC-3/</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://gwosc.org/eventapi/json/O3_Discovery_Papers/GW190521/v1</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
+          <t>https://gwosc.org/eventapi/json/GWTC-3-confident/GW191113_071753/v1</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>29</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-14</v>
+      </c>
+      <c r="J5" t="n">
+        <v>12</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1370</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-620</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1150</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="W5" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-9.800000000000001</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1.1</v>
+      </c>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
+      <c r="AF5" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>26</v>
+      </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>0.6833900000000001</v>
+      </c>
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
+      <c r="AO5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-10</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GW190521-v2</t>
+          <t>GW191126_115259-v1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GW190521</t>
+          <t>GW191126_115259</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>O3_Discovery_Papers</t>
+          <t>GWTC-3-confident</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1242442967.4</v>
+        <v>1258804397.6</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/o3_eventdata_docs/</t>
+          <t>/GWTC-3/</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://gwosc.org/eventapi/json/O3_Discovery_Papers/GW190521/v2</t>
+          <t>https://gwosc.org/eventapi/json/GWTC-3-confident/GW191126_115259/v1</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>85</v>
+        <v>12.1</v>
       </c>
       <c r="I6" t="n">
-        <v>-14</v>
+        <v>-2.2</v>
       </c>
       <c r="J6" t="n">
-        <v>21</v>
+        <v>5.5</v>
       </c>
       <c r="K6" t="n">
-        <v>66</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L6" t="n">
-        <v>-18</v>
+        <v>-2.4</v>
       </c>
       <c r="M6" t="n">
-        <v>17</v>
+        <v>1.9</v>
       </c>
       <c r="N6" t="n">
-        <v>14.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>5300</v>
+        <v>1620</v>
       </c>
       <c r="R6" t="n">
-        <v>-2600</v>
+        <v>-740</v>
       </c>
       <c r="S6" t="n">
-        <v>2400</v>
+        <v>740</v>
       </c>
       <c r="T6" t="n">
-        <v>0.08</v>
+        <v>0.21</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.36</v>
+        <v>-0.11</v>
       </c>
       <c r="V6" t="n">
-        <v>0.27</v>
+        <v>0.15</v>
       </c>
       <c r="W6" t="n">
-        <v>151</v>
+        <v>20.4</v>
       </c>
       <c r="X6" t="n">
-        <v>-17</v>
+        <v>-2</v>
       </c>
       <c r="Y6" t="n">
-        <v>29</v>
+        <v>3.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>64</v>
+        <v>8.65</v>
       </c>
       <c r="AA6" t="n">
-        <v>-8</v>
+        <v>-0.71</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>117</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>-14</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>12</v>
-      </c>
+        <v>0.95</v>
+      </c>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
-        <v>0.82</v>
+        <v>0.3</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0.34</v>
+        <v>-0.13</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AI6" t="inlineStr"/>
+        <v>0.12</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>3.2</v>
+      </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>0.70041</v>
+      </c>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
+      <c r="AO6" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GW190814-v1</t>
+          <t>GW191127_050227-v1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GW190814</t>
+          <t>GW191127_050227</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -1173,122 +1301,126 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>O3_Discovery_Papers</t>
+          <t>GWTC-3-confident</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1249852257</v>
+        <v>1258866165.5</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/o3_eventdata_docs/</t>
+          <t>/GWTC-3/</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://gwosc.org/eventapi/json/O3_Discovery_Papers/GW190814/v1</t>
+          <t>https://gwosc.org/eventapi/json/GWTC-3-confident/GW191127_050227/v1</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>23.2</v>
+        <v>53</v>
       </c>
       <c r="I7" t="n">
-        <v>-1</v>
+        <v>-20</v>
       </c>
       <c r="J7" t="n">
-        <v>1.1</v>
+        <v>47</v>
       </c>
       <c r="K7" t="n">
-        <v>2.59</v>
+        <v>24</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.09</v>
+        <v>-14</v>
       </c>
       <c r="M7" t="n">
-        <v>0.08</v>
+        <v>17</v>
       </c>
       <c r="N7" t="n">
-        <v>25</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>241</v>
+        <v>3400</v>
       </c>
       <c r="R7" t="n">
-        <v>-45</v>
+        <v>-1900</v>
       </c>
       <c r="S7" t="n">
-        <v>41</v>
+        <v>3100</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.002</v>
+        <v>0.18</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.061</v>
+        <v>-0.36</v>
       </c>
       <c r="V7" t="n">
-        <v>0.06</v>
+        <v>0.34</v>
       </c>
       <c r="W7" t="n">
-        <v>25.79</v>
+        <v>77</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.9</v>
+        <v>-22</v>
       </c>
       <c r="Y7" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="Z7" t="n">
-        <v>6.09</v>
+        <v>29.9</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.06</v>
+        <v>-9.1</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>6.41</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0.02</v>
-      </c>
+        <v>11.7</v>
+      </c>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
-        <v>0.053</v>
+        <v>0.57</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0.01</v>
+        <v>-0.29</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="AI7" t="inlineStr"/>
+        <v>0.4</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.25</v>
+      </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>0.73996</v>
+      </c>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
+      <c r="AO7" t="n">
+        <v>76</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-21</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GW200105-v1</t>
+          <t>GW191129_134029-v1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GW200105_162426</t>
+          <t>GW191129_134029</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -1296,120 +1428,126 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>O3_Discovery_Papers</t>
+          <t>GWTC-3-confident</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1262276684</v>
+        <v>1259070047.1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/o3_eventdata_docs/</t>
+          <t>/GWTC-3/</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://gwosc.org/eventapi/json/O3_Discovery_Papers/GW200105_162426/v1</t>
+          <t>https://gwosc.org/eventapi/json/GWTC-3-confident/GW191129_134029/v1</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8.9</v>
+        <v>10.7</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.5</v>
+        <v>-2.1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.2</v>
+        <v>4.1</v>
       </c>
       <c r="K8" t="n">
-        <v>1.9</v>
+        <v>6.7</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.2</v>
+        <v>-1.7</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="N8" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+        <v>13.1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.2</v>
+      </c>
       <c r="Q8" t="n">
-        <v>280</v>
+        <v>790</v>
       </c>
       <c r="R8" t="n">
-        <v>-110</v>
+        <v>-330</v>
       </c>
       <c r="S8" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.01</v>
+        <v>0.06</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.15</v>
+        <v>-0.08</v>
       </c>
       <c r="V8" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="W8" t="n">
-        <v>10.8</v>
+        <v>17.4</v>
       </c>
       <c r="X8" t="n">
         <v>-1.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>3.41</v>
+        <v>7.31</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.28</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0.01</v>
-      </c>
+        <v>0.43</v>
+      </c>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="n">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="AG8" t="n">
-        <v>-0.02</v>
+        <v>-0.06</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.36</v>
+        <v>1e-05</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>0.99</v>
+      </c>
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
+      <c r="AO8" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GW200115-v1</t>
+          <t>GW191204_110529-v1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GW200115_042309</t>
+          <t>GW191204_110529</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -1417,110 +1555,3545 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>O3_Discovery_Papers</t>
+          <t>GWTC-3-confident</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1263097407.7</v>
+        <v>1259492747.5</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/o3_eventdata_docs/</t>
+          <t>/GWTC-3/</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://gwosc.org/eventapi/json/O3_Discovery_Papers/GW200115_042309/v1</t>
+          <t>https://gwosc.org/eventapi/json/GWTC-3-confident/GW191204_110529/v1</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5.7</v>
+        <v>27.3</v>
       </c>
       <c r="I9" t="n">
-        <v>-2.1</v>
+        <v>-6</v>
       </c>
       <c r="J9" t="n">
-        <v>1.8</v>
+        <v>11</v>
       </c>
       <c r="K9" t="n">
-        <v>1.5</v>
+        <v>19.3</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.3</v>
+        <v>-6</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7</v>
+        <v>5.6</v>
       </c>
       <c r="N9" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+        <v>8.800000000000001</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.4</v>
+      </c>
       <c r="Q9" t="n">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="R9" t="n">
-        <v>-100</v>
+        <v>-1100</v>
       </c>
       <c r="S9" t="n">
-        <v>150</v>
+        <v>1700</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.19</v>
+        <v>0.05</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.35</v>
+        <v>-0.27</v>
       </c>
       <c r="V9" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="W9" t="n">
-        <v>7.2</v>
+        <v>46.6</v>
       </c>
       <c r="X9" t="n">
-        <v>-1.4</v>
+        <v>-8</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.42</v>
+        <v>19.8</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-3.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0.01</v>
-      </c>
+        <v>3.6</v>
+      </c>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0.02</v>
+        <v>-0.18</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
       <c r="AI9" t="n">
-        <v>1e-05</v>
+        <v>3.3</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>0.74239</v>
+      </c>
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
+      <c r="AO9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>-7.6</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GW191204_171526-v1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>GW191204_171526</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GWTC-3-confident</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1259514944</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>/GWTC-3/</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://gwosc.org/eventapi/json/GWTC-3-confident/GW191204_171526/v1</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>650</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-250</v>
+      </c>
+      <c r="S10" t="n">
+        <v>190</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="U10" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="W10" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GW191215_223052-v1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>GW191215_223052</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>GWTC-3-confident</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1260484270.3</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>/GWTC-3/</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://gwosc.org/eventapi/json/GWTC-3-confident/GW191215_223052/v1</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1930</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-860</v>
+      </c>
+      <c r="S11" t="n">
+        <v>890</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="W11" t="n">
+        <v>43</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-4.3</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GW191216_213338-v1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GW191216_213338</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>GWTC-3-confident</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1260567236.4</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>/GWTC-3/</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://gwosc.org/eventapi/json/GWTC-3-confident/GW191216_213338/v1</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K12" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="N12" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>340</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-130</v>
+      </c>
+      <c r="S12" t="n">
+        <v>120</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="W12" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GW191219_163120-v1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GW191219_163120</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>GWTC-3-confident</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1260808298.4</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>/GWTC-3/</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://gwosc.org/eventapi/json/GWTC-3-confident/GW191219_163120/v1</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N13" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>550</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-160</v>
+      </c>
+      <c r="S13" t="n">
+        <v>250</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="W13" t="n">
+        <v>32.27</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>0.8224</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GW191222_033537-v1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GW191222_033537</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>GWTC-3-confident</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1261020955.1</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>/GWTC-3/</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://gwosc.org/eventapi/json/GWTC-3-confident/GW191222_033537/v1</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="K14" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="N14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3000</v>
+      </c>
+      <c r="R14" t="n">
+        <v>-1700</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1700</v>
+      </c>
+      <c r="T14" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="U14" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W14" t="n">
+        <v>79.80000000000001</v>
+      </c>
+      <c r="X14" t="n">
+        <v>-11</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>-5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>-9.9</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GW191230_180458-v1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GW191230_180458</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>GWTC-3-confident</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1261764316.4</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>/GWTC-3/</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://gwosc.org/eventapi/json/GWTC-3-confident/GW191230_180458/v1</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-9.6</v>
+      </c>
+      <c r="J15" t="n">
+        <v>14</v>
+      </c>
+      <c r="K15" t="n">
+        <v>37</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-12</v>
+      </c>
+      <c r="M15" t="n">
+        <v>11</v>
+      </c>
+      <c r="N15" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4300</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-1900</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2100</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="W15" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-12</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>-5.6</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>0.9615899999999999</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="n">
+        <v>82</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>-11</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GW200112_155838-v1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GW200112_155838</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>GWTC-3-confident</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1262879936</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>/GWTC-3/</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://gwosc.org/eventapi/json/GWTC-3-confident/GW200112_155838/v1</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="K16" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-5.9</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="N16" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1250</v>
+      </c>
+      <c r="R16" t="n">
+        <v>-460</v>
+      </c>
+      <c r="S16" t="n">
+        <v>430</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="U16" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="W16" t="n">
+        <v>63.90000000000001</v>
+      </c>
+      <c r="X16" t="n">
+        <v>-4.6</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>-4.3</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GW200115_042309-v2</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>GW200115_042309</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>GWTC-3-confident</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1263097407.7</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>/GWTC-3/</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://gwosc.org/eventapi/json/GWTC-3-confident/GW200115_042309/v2</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="N17" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>290</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-100</v>
+      </c>
+      <c r="S17" t="n">
+        <v>150</v>
+      </c>
+      <c r="T17" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="U17" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="W17" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="X17" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>GW200128_022011-v1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>GW200128_022011</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>GWTC-3-confident</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1264213229.9</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>/GWTC-3/</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://gwosc.org/eventapi/json/GWTC-3-confident/GW200128_022011/v1</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-8.1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K18" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-9.199999999999999</v>
+      </c>
+      <c r="M18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3400</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-1800</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2100</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="W18" t="n">
+        <v>74.80000000000001</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-12</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0.0043</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="n">
+        <v>71</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>-11</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>GW200129_065458-v1</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>GW200129_065458</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>GWTC-3-confident</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1264316116.4</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>/GWTC-3/</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://gwosc.org/eventapi/json/GWTC-3-confident/GW200129_065458/v1</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="K19" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-9.300000000000001</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N19" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>900</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-380</v>
+      </c>
+      <c r="S19" t="n">
+        <v>290</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="U19" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="W19" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="X19" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>-3.3</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>GW200202_154313-v1</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>GW200202_154313</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>GWTC-3-confident</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1264693411.5</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>/GWTC-3/</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://gwosc.org/eventapi/json/GWTC-3-confident/GW200202_154313/v1</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="O20" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>410</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-160</v>
+      </c>
+      <c r="S20" t="n">
+        <v>150</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="U20" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="W20" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="X20" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>-0.66</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GW200208_130117-v1</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>GW200208_130117</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>GWTC-3-confident</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1265202095.9</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>/GWTC-3/</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://gwosc.org/eventapi/json/GWTC-3-confident/GW200208_130117/v1</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-6.2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="K21" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-7.4</v>
+      </c>
+      <c r="M21" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2230</v>
+      </c>
+      <c r="R21" t="n">
+        <v>-850</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T21" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="U21" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="W21" t="n">
+        <v>65.19999999999999</v>
+      </c>
+      <c r="X21" t="n">
+        <v>-6.8</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.00031</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>-6.4</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>GW200208_222617-v1</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>GW200208_222617</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>GWTC-3-confident</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1265235995.9</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>/GWTC-3/</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://gwosc.org/eventapi/json/GWTC-3-confident/GW200208_222617/v1</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>51</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-30</v>
+      </c>
+      <c r="J22" t="n">
+        <v>104</v>
+      </c>
+      <c r="K22" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-5.7</v>
+      </c>
+      <c r="M22" t="n">
+        <v>9</v>
+      </c>
+      <c r="N22" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4100</v>
+      </c>
+      <c r="R22" t="n">
+        <v>-1900</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4400</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="U22" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="W22" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="X22" t="n">
+        <v>-25</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>-5.1</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>0.70006</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="n">
+        <v>61</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>GW200209_085452-v1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>GW200209_085452</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>GWTC-3-confident</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1265273710.1</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>/GWTC-3/</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://gwosc.org/eventapi/json/GWTC-3-confident/GW200209_085452/v1</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-6.8</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-7.8</v>
+      </c>
+      <c r="M23" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="N23" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3400</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-1800</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1900</v>
+      </c>
+      <c r="T23" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="W23" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="X23" t="n">
+        <v>-9.4</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>0.97236</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>-8.9</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>GW200210_092254-v1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>GW200210_092254</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>GWTC-3-confident</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1265361792.9</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>/GWTC-3/</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://gwosc.org/eventapi/json/GWTC-3-confident/GW200210_092254/v1</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-4.6</v>
+      </c>
+      <c r="J24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>940</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-340</v>
+      </c>
+      <c r="S24" t="n">
+        <v>430</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U24" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="W24" t="n">
+        <v>26.93</v>
+      </c>
+      <c r="X24" t="n">
+        <v>-4.3</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>0.54462</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
+      <c r="AO24" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>-4.3</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>GW200216_220804-v1</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>GW200216_220804</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>GWTC-3-confident</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1265926102.8</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>/GWTC-3/</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://gwosc.org/eventapi/json/GWTC-3-confident/GW200216_220804/v1</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>51</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-13</v>
+      </c>
+      <c r="J25" t="n">
+        <v>22</v>
+      </c>
+      <c r="K25" t="n">
+        <v>30</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-16</v>
+      </c>
+      <c r="M25" t="n">
+        <v>14</v>
+      </c>
+      <c r="N25" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="O25" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3800</v>
+      </c>
+      <c r="R25" t="n">
+        <v>-2000</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3000</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="U25" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="W25" t="n">
+        <v>81</v>
+      </c>
+      <c r="X25" t="n">
+        <v>-14</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>0.77277</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="n">
+        <v>78</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>-13</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>GW200219_094415-v1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>GW200219_094415</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>GWTC-3-confident</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1266140673.1</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>/GWTC-3/</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://gwosc.org/eventapi/json/GWTC-3-confident/GW200219_094415/v1</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-6.9</v>
+      </c>
+      <c r="J26" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-8.4</v>
+      </c>
+      <c r="M26" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="N26" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3400</v>
+      </c>
+      <c r="R26" t="n">
+        <v>-1500</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1700</v>
+      </c>
+      <c r="T26" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="U26" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="W26" t="n">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="X26" t="n">
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.00099</v>
+      </c>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
+      <c r="AO26" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>-7.8</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>GW200220_061928-v1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>GW200220_061928</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>GWTC-3-confident</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1266214786.7</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>/GWTC-3/</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://gwosc.org/eventapi/json/GWTC-3-confident/GW200220_061928/v1</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>87</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-23</v>
+      </c>
+      <c r="J27" t="n">
+        <v>40</v>
+      </c>
+      <c r="K27" t="n">
+        <v>61</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-25</v>
+      </c>
+      <c r="M27" t="n">
+        <v>26</v>
+      </c>
+      <c r="N27" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>6000</v>
+      </c>
+      <c r="R27" t="n">
+        <v>-3100</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4800</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="U27" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W27" t="n">
+        <v>148</v>
+      </c>
+      <c r="X27" t="n">
+        <v>-33</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>62</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>-15</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="n">
+        <v>0.62376</v>
+      </c>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
+      <c r="AO27" t="n">
+        <v>141</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>-31</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>GW200220_124850-v1</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>GW200220_124850</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>GWTC-3-confident</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1266238148.1</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>/GWTC-3/</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://gwosc.org/eventapi/json/GWTC-3-confident/GW200220_124850/v1</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-8.6</v>
+      </c>
+      <c r="J28" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-9</v>
+      </c>
+      <c r="M28" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="N28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O28" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4000</v>
+      </c>
+      <c r="R28" t="n">
+        <v>-2200</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2800</v>
+      </c>
+      <c r="T28" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="U28" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="W28" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="X28" t="n">
+        <v>-12</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>-5.1</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="n">
+        <v>0.82579</v>
+      </c>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="n">
+        <v>64</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>-11</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>GW200224_222234-v1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>GW200224_222234</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>GWTC-3-confident</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1266618172.4</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>/GWTC-3/</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://gwosc.org/eventapi/json/GWTC-3-confident/GW200224_222234/v1</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>40</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="K29" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-7.2</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>20</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1710</v>
+      </c>
+      <c r="R29" t="n">
+        <v>-640</v>
+      </c>
+      <c r="S29" t="n">
+        <v>490</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="U29" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="W29" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>-5.1</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>-4.7</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>GW200225_060421-v1</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>GW200225_060421</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>GWTC-3-confident</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1266645879.3</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>/GWTC-3/</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://gwosc.org/eventapi/json/GWTC-3-confident/GW200225_060421/v1</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>14</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1150</v>
+      </c>
+      <c r="R30" t="n">
+        <v>-530</v>
+      </c>
+      <c r="S30" t="n">
+        <v>510</v>
+      </c>
+      <c r="T30" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="U30" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="W30" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="X30" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1.1e-05</v>
+      </c>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>GW200302_015811-v1</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>GW200302_015811</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>GWTC-3-confident</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1267149509.5</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>/GWTC-3/</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://gwosc.org/eventapi/json/GWTC-3-confident/GW200302_015811/v1</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="K31" t="n">
+        <v>20</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-5.7</v>
+      </c>
+      <c r="M31" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1480</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-700</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1020</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U31" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="W31" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-6.9</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="n">
+        <v>0.90643</v>
+      </c>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
+      <c r="AO31" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>-6.6</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>GW200306_093714-v1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>GW200306_093714</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>GWTC-3-confident</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>1267522652.1</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>/GWTC-3/</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://gwosc.org/eventapi/json/GWTC-3-confident/GW200306_093714/v1</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-7.7</v>
+      </c>
+      <c r="J32" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-6.4</v>
+      </c>
+      <c r="M32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N32" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2100</v>
+      </c>
+      <c r="R32" t="n">
+        <v>-1100</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1700</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="U32" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="W32" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="X32" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="n">
+        <v>0.8115599999999999</v>
+      </c>
+      <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
+      <c r="AO32" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>-6.9</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>GW200308_173609-v1</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>GW200308_173609</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>GWTC-3-confident</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1267724187.7</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>/GWTC-3/</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://gwosc.org/eventapi/json/GWTC-3-confident/GW200308_173609/v1</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-9.6</v>
+      </c>
+      <c r="J33" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K33" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-3.3</v>
+      </c>
+      <c r="M33" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5400</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-2600</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2700</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="U33" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="W33" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="X33" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="n">
+        <v>0.8566</v>
+      </c>
+      <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr"/>
+      <c r="AO33" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>-7.7</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>GW200311_115853-v1</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>GW200311_115853</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>GWTC-3-confident</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1267963151.3</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>/GWTC-3/</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://gwosc.org/eventapi/json/GWTC-3-confident/GW200311_115853/v1</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="J34" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K34" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-5.9</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1170</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-400</v>
+      </c>
+      <c r="S34" t="n">
+        <v>280</v>
+      </c>
+      <c r="T34" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="U34" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="W34" t="n">
+        <v>61.90000000000001</v>
+      </c>
+      <c r="X34" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr"/>
+      <c r="AO34" t="n">
+        <v>59</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>-3.9</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>GW200316_215756-v1</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>GW200316_215756</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>GWTC-3-confident</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>1268431094.1</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>/GWTC-3/</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://gwosc.org/eventapi/json/GWTC-3-confident/GW200316_215756/v1</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="J35" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="K35" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="N35" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1120</v>
+      </c>
+      <c r="R35" t="n">
+        <v>-440</v>
+      </c>
+      <c r="S35" t="n">
+        <v>470</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="U35" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="W35" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="X35" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr"/>
+      <c r="AO35" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>GW200322_091133-v1</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>GW200322_091133</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>GWTC-3-confident</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1268903511.3</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>/GWTC-3/</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://gwosc.org/eventapi/json/GWTC-3-confident/GW200322_091133/v1</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>34</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-18</v>
+      </c>
+      <c r="J36" t="n">
+        <v>48</v>
+      </c>
+      <c r="K36" t="n">
+        <v>14</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-8.699999999999999</v>
+      </c>
+      <c r="M36" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3600</v>
+      </c>
+      <c r="R36" t="n">
+        <v>-2000</v>
+      </c>
+      <c r="S36" t="n">
+        <v>7000</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="U36" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="W36" t="n">
+        <v>48</v>
+      </c>
+      <c r="X36" t="n">
+        <v>-27</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="n">
+        <v>0.6150099999999999</v>
+      </c>
+      <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr"/>
+      <c r="AO36" t="n">
+        <v>53</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>-26</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/GWC/updated_GWTC.xlsx
+++ b/GWC/updated_GWTC.xlsx
@@ -8486,22 +8486,22 @@
         <v>27.3</v>
       </c>
       <c r="I64" t="n">
-        <v>-6</v>
+        <v>-5.9</v>
       </c>
       <c r="J64" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="K64" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="L64" t="n">
         <v>-6</v>
       </c>
       <c r="M64" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="N64" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="O64" t="n">
         <v>-0.6</v>
@@ -8510,7 +8510,7 @@
         <v>0.4</v>
       </c>
       <c r="Q64" t="n">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="R64" t="n">
         <v>-1100</v>
@@ -8522,25 +8522,25 @@
         <v>0.05</v>
       </c>
       <c r="U64" t="n">
-        <v>-0.27</v>
+        <v>-0.26</v>
       </c>
       <c r="V64" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="W64" t="n">
-        <v>46.6</v>
+        <v>46.5</v>
       </c>
       <c r="X64" t="n">
-        <v>-8</v>
+        <v>-7.8</v>
       </c>
       <c r="Y64" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="Z64" t="n">
         <v>19.8</v>
       </c>
       <c r="AA64" t="n">
-        <v>-3.3</v>
+        <v>-3.2</v>
       </c>
       <c r="AB64" t="n">
         <v>3.6</v>
@@ -8571,10 +8571,10 @@
         <v>45</v>
       </c>
       <c r="AP64" t="n">
-        <v>-7.6</v>
+        <v>-7.5</v>
       </c>
       <c r="AQ64" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="65">
@@ -8610,40 +8610,40 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="I65" t="n">
-        <v>-1.8</v>
+        <v>-1.7</v>
       </c>
       <c r="J65" t="n">
         <v>3.3</v>
       </c>
       <c r="K65" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="L65" t="n">
-        <v>-1.6</v>
+        <v>-1.7</v>
       </c>
       <c r="M65" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="N65" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="O65" t="n">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="P65" t="n">
         <v>0.2</v>
       </c>
       <c r="Q65" t="n">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="R65" t="n">
-        <v>-250</v>
+        <v>-260</v>
       </c>
       <c r="S65" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="T65" t="n">
         <v>0.16</v>
@@ -8658,19 +8658,19 @@
         <v>20.1</v>
       </c>
       <c r="X65" t="n">
-        <v>-0.96</v>
+        <v>-0.95</v>
       </c>
       <c r="Y65" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="Z65" t="n">
-        <v>8.550000000000001</v>
+        <v>8.56</v>
       </c>
       <c r="AA65" t="n">
-        <v>-0.27</v>
+        <v>-0.28</v>
       </c>
       <c r="AB65" t="n">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="AC65" t="inlineStr"/>
       <c r="AD65" t="inlineStr"/>
@@ -8695,13 +8695,13 @@
       <c r="AM65" t="inlineStr"/>
       <c r="AN65" t="inlineStr"/>
       <c r="AO65" t="n">
-        <v>19.21</v>
+        <v>19.18</v>
       </c>
       <c r="AP65" t="n">
-        <v>-0.95</v>
+        <v>-0.93</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="66">
@@ -8867,7 +8867,7 @@
         <v>12.1</v>
       </c>
       <c r="I67" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="J67" t="n">
         <v>4.6</v>
@@ -8912,10 +8912,10 @@
         <v>19.8</v>
       </c>
       <c r="X67" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-0.93</v>
       </c>
       <c r="Y67" t="n">
-        <v>2.69</v>
+        <v>2.7</v>
       </c>
       <c r="Z67" t="n">
         <v>8.33</v>
@@ -8952,10 +8952,10 @@
         <v>18.87</v>
       </c>
       <c r="AP67" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-0.93</v>
       </c>
       <c r="AQ67" t="n">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="68">
@@ -9024,7 +9024,7 @@
         <v>-160</v>
       </c>
       <c r="S68" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="T68" t="n">
         <v>0</v>
@@ -9045,7 +9045,7 @@
         <v>2.2</v>
       </c>
       <c r="Z68" t="n">
-        <v>4.32</v>
+        <v>4.31</v>
       </c>
       <c r="AA68" t="n">
         <v>-0.17</v>
@@ -9511,7 +9511,7 @@
         <v>1.44</v>
       </c>
       <c r="L72" t="n">
-        <v>-0.29</v>
+        <v>-0.28</v>
       </c>
       <c r="M72" t="n">
         <v>0.85</v>
@@ -9541,7 +9541,7 @@
         <v>-0.42</v>
       </c>
       <c r="V72" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="W72" t="n">
         <v>7.34</v>
@@ -9550,7 +9550,7 @@
         <v>-1.7</v>
       </c>
       <c r="Y72" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Z72" t="n">
         <v>2.43</v>
@@ -9756,19 +9756,19 @@
         <v>34.5</v>
       </c>
       <c r="I74" t="n">
-        <v>-3.2</v>
+        <v>-3.1</v>
       </c>
       <c r="J74" t="n">
         <v>9.9</v>
       </c>
       <c r="K74" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="L74" t="n">
         <v>-9.300000000000001</v>
       </c>
       <c r="M74" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N74" t="n">
         <v>26.8</v>
@@ -9780,13 +9780,13 @@
         <v>0.2</v>
       </c>
       <c r="Q74" t="n">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="R74" t="n">
-        <v>-380</v>
+        <v>-370</v>
       </c>
       <c r="S74" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="T74" t="n">
         <v>0.11</v>
@@ -9798,13 +9798,13 @@
         <v>0.11</v>
       </c>
       <c r="W74" t="n">
-        <v>63.4</v>
+        <v>63.5</v>
       </c>
       <c r="X74" t="n">
-        <v>-3.6</v>
+        <v>-3.4</v>
       </c>
       <c r="Y74" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="Z74" t="n">
         <v>27.2</v>
@@ -9838,13 +9838,13 @@
       <c r="AM74" t="inlineStr"/>
       <c r="AN74" t="inlineStr"/>
       <c r="AO74" t="n">
-        <v>60.3</v>
+        <v>60.2</v>
       </c>
       <c r="AP74" t="n">
-        <v>-3.3</v>
+        <v>-3.2</v>
       </c>
       <c r="AQ74" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="75">
@@ -10007,22 +10007,22 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="I76" t="n">
         <v>-6.2</v>
       </c>
       <c r="J76" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K76" t="n">
         <v>27.4</v>
       </c>
       <c r="L76" t="n">
-        <v>-7.4</v>
+        <v>-7.3</v>
       </c>
       <c r="M76" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="N76" t="n">
         <v>10.8</v>
@@ -10040,7 +10040,7 @@
         <v>-850</v>
       </c>
       <c r="S76" t="n">
-        <v>1000</v>
+        <v>1020</v>
       </c>
       <c r="T76" t="n">
         <v>-0.07000000000000001</v>
@@ -10049,16 +10049,16 @@
         <v>-0.27</v>
       </c>
       <c r="V76" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="W76" t="n">
-        <v>65.19999999999999</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="X76" t="n">
         <v>-6.8</v>
       </c>
       <c r="Y76" t="n">
-        <v>7.8</v>
+        <v>8.1</v>
       </c>
       <c r="Z76" t="n">
         <v>27.7</v>
@@ -10067,7 +10067,7 @@
         <v>-3.1</v>
       </c>
       <c r="AB76" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AC76" t="inlineStr"/>
       <c r="AD76" t="inlineStr"/>
@@ -10098,7 +10098,7 @@
         <v>-6.4</v>
       </c>
       <c r="AQ76" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="77">
@@ -10140,16 +10140,16 @@
         <v>-30</v>
       </c>
       <c r="J77" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K77" t="n">
         <v>12.3</v>
       </c>
       <c r="L77" t="n">
-        <v>-5.7</v>
+        <v>-5.5</v>
       </c>
       <c r="M77" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="N77" t="n">
         <v>7.4</v>
@@ -10164,7 +10164,7 @@
         <v>4100</v>
       </c>
       <c r="R77" t="n">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="S77" t="n">
         <v>4400</v>
@@ -10173,28 +10173,28 @@
         <v>0.45</v>
       </c>
       <c r="U77" t="n">
-        <v>-0.44</v>
+        <v>-0.46</v>
       </c>
       <c r="V77" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="W77" t="n">
         <v>63.3</v>
       </c>
       <c r="X77" t="n">
-        <v>-25</v>
+        <v>-26</v>
       </c>
       <c r="Y77" t="n">
         <v>100</v>
       </c>
       <c r="Z77" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="AA77" t="n">
-        <v>-5.1</v>
+        <v>-5.2</v>
       </c>
       <c r="AB77" t="n">
-        <v>10.7</v>
+        <v>10.5</v>
       </c>
       <c r="AC77" t="inlineStr"/>
       <c r="AD77" t="inlineStr"/>
@@ -10203,10 +10203,10 @@
         <v>0.66</v>
       </c>
       <c r="AG77" t="n">
-        <v>-0.28</v>
+        <v>-0.29</v>
       </c>
       <c r="AH77" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="AI77" t="n">
         <v>4.8</v>
@@ -10222,10 +10222,10 @@
         <v>61</v>
       </c>
       <c r="AP77" t="n">
-        <v>-25</v>
+        <v>-26</v>
       </c>
       <c r="AQ77" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78">
@@ -11029,16 +11029,16 @@
         <v>-4.5</v>
       </c>
       <c r="J84" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="K84" t="n">
-        <v>32.5</v>
+        <v>32.7</v>
       </c>
       <c r="L84" t="n">
         <v>-7.2</v>
       </c>
       <c r="M84" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="N84" t="n">
         <v>20</v>
@@ -11053,25 +11053,25 @@
         <v>1710</v>
       </c>
       <c r="R84" t="n">
-        <v>-640</v>
+        <v>-650</v>
       </c>
       <c r="S84" t="n">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="T84" t="n">
         <v>0.1</v>
       </c>
       <c r="U84" t="n">
-        <v>-0.15</v>
+        <v>-0.16</v>
       </c>
       <c r="V84" t="n">
         <v>0.15</v>
       </c>
       <c r="W84" t="n">
-        <v>72.5</v>
+        <v>72.7</v>
       </c>
       <c r="X84" t="n">
-        <v>-5.1</v>
+        <v>-5.3</v>
       </c>
       <c r="Y84" t="n">
         <v>7.2</v>
@@ -11080,10 +11080,10 @@
         <v>31.1</v>
       </c>
       <c r="AA84" t="n">
-        <v>-2.6</v>
+        <v>-2.7</v>
       </c>
       <c r="AB84" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AC84" t="inlineStr"/>
       <c r="AD84" t="inlineStr"/>
@@ -11108,13 +11108,13 @@
       <c r="AM84" t="inlineStr"/>
       <c r="AN84" t="inlineStr"/>
       <c r="AO84" t="n">
-        <v>68.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="AP84" t="n">
-        <v>-4.7</v>
+        <v>-4.8</v>
       </c>
       <c r="AQ84" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="85">
@@ -11531,79 +11531,79 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>36.4</v>
+        <v>60</v>
       </c>
       <c r="I88" t="n">
-        <v>-9.6</v>
+        <v>-29</v>
       </c>
       <c r="J88" t="n">
-        <v>11.2</v>
+        <v>166</v>
       </c>
       <c r="K88" t="n">
-        <v>13.8</v>
+        <v>24</v>
       </c>
       <c r="L88" t="n">
-        <v>-3.3</v>
+        <v>-13</v>
       </c>
       <c r="M88" t="n">
-        <v>7.2</v>
+        <v>36</v>
       </c>
       <c r="N88" t="n">
-        <v>7.1</v>
+        <v>4.7</v>
       </c>
       <c r="O88" t="n">
-        <v>-0.5</v>
+        <v>-2.9</v>
       </c>
       <c r="P88" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q88" t="n">
-        <v>5400</v>
+        <v>7100</v>
       </c>
       <c r="R88" t="n">
-        <v>-2600</v>
+        <v>-4400</v>
       </c>
       <c r="S88" t="n">
-        <v>2700</v>
+        <v>13900</v>
       </c>
       <c r="T88" t="n">
-        <v>0.65</v>
+        <v>0.16</v>
       </c>
       <c r="U88" t="n">
-        <v>-0.21</v>
+        <v>-0.49</v>
       </c>
       <c r="V88" t="n">
-        <v>0.17</v>
+        <v>0.58</v>
       </c>
       <c r="W88" t="n">
-        <v>50.2</v>
+        <v>84</v>
       </c>
       <c r="X88" t="n">
-        <v>-8.5</v>
+        <v>-48</v>
       </c>
       <c r="Y88" t="n">
-        <v>10.9</v>
+        <v>169</v>
       </c>
       <c r="Z88" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AA88" t="n">
-        <v>-2.8</v>
+        <v>-18</v>
       </c>
       <c r="AB88" t="n">
-        <v>4.8</v>
+        <v>44</v>
       </c>
       <c r="AC88" t="inlineStr"/>
       <c r="AD88" t="inlineStr"/>
       <c r="AE88" t="inlineStr"/>
       <c r="AF88" t="n">
-        <v>0.83</v>
+        <v>1.04</v>
       </c>
       <c r="AG88" t="n">
-        <v>-0.35</v>
+        <v>-0.57</v>
       </c>
       <c r="AH88" t="n">
-        <v>0.32</v>
+        <v>1.47</v>
       </c>
       <c r="AI88" t="n">
         <v>2.4</v>
@@ -11616,13 +11616,13 @@
       <c r="AM88" t="inlineStr"/>
       <c r="AN88" t="inlineStr"/>
       <c r="AO88" t="n">
-        <v>47.4</v>
+        <v>88</v>
       </c>
       <c r="AP88" t="n">
-        <v>-7.7</v>
+        <v>-47</v>
       </c>
       <c r="AQ88" t="n">
-        <v>11.1</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89">
@@ -11800,7 +11800,7 @@
         <v>-2.9</v>
       </c>
       <c r="M90" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="N90" t="n">
         <v>10.3</v>
@@ -11818,7 +11818,7 @@
         <v>-440</v>
       </c>
       <c r="S90" t="n">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="T90" t="n">
         <v>0.13</v>
@@ -11912,79 +11912,79 @@
         </is>
       </c>
       <c r="H91" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I91" t="n">
-        <v>-18</v>
+        <v>-22</v>
       </c>
       <c r="J91" t="n">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="K91" t="n">
-        <v>14</v>
+        <v>11.3</v>
       </c>
       <c r="L91" t="n">
-        <v>-8.699999999999999</v>
+        <v>-6</v>
       </c>
       <c r="M91" t="n">
-        <v>16.8</v>
+        <v>24.3</v>
       </c>
       <c r="N91" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="O91" t="n">
-        <v>-1.2</v>
+        <v>-3</v>
       </c>
       <c r="P91" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="Q91" t="n">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="R91" t="n">
-        <v>-2000</v>
+        <v>-2200</v>
       </c>
       <c r="S91" t="n">
-        <v>7000</v>
+        <v>12500</v>
       </c>
       <c r="T91" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="U91" t="n">
-        <v>-0.51</v>
+        <v>-0.58</v>
       </c>
       <c r="V91" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="W91" t="n">
-        <v>48</v>
+        <v>49.3</v>
       </c>
       <c r="X91" t="n">
-        <v>-27</v>
+        <v>-22</v>
       </c>
       <c r="Y91" t="n">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="Z91" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA91" t="n">
-        <v>-3.7</v>
+        <v>-4</v>
       </c>
       <c r="AB91" t="n">
-        <v>15.7</v>
+        <v>29.5</v>
       </c>
       <c r="AC91" t="inlineStr"/>
       <c r="AD91" t="inlineStr"/>
       <c r="AE91" t="inlineStr"/>
       <c r="AF91" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="AG91" t="n">
-        <v>-0.3</v>
+        <v>-0.32</v>
       </c>
       <c r="AH91" t="n">
-        <v>0.84</v>
+        <v>1.43</v>
       </c>
       <c r="AI91" t="n">
         <v>140</v>
@@ -11997,13 +11997,13 @@
       <c r="AM91" t="inlineStr"/>
       <c r="AN91" t="inlineStr"/>
       <c r="AO91" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AP91" t="n">
-        <v>-26</v>
+        <v>-22</v>
       </c>
       <c r="AQ91" t="n">
-        <v>38</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/GWC/updated_GWTC.xlsx
+++ b/GWC/updated_GWTC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ7"/>
+  <dimension ref="A1:AQ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,381 +653,399 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GW190412-v2</t>
+          <t>GW190408_181802-v1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GW190412</t>
+          <t>GW190408_181802</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>O3_Discovery_Papers</t>
+          <t>GWTC-2</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1239082262.2</v>
+        <v>1238782700.3</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/o3_eventdata_docs/</t>
+          <t>/GWTC-2/</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>http://gwosc.org/eventapi/json/O3_Discovery_Papers/GW190412/v2</t>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190408_181802/v1</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>30.1</v>
+        <v>24.6</v>
       </c>
       <c r="I2" t="n">
-        <v>-5.3</v>
+        <v>-3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="K2" t="n">
-        <v>8.300000000000001</v>
+        <v>18.4</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.9</v>
+        <v>-3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="N2" t="n">
-        <v>19</v>
-      </c>
-      <c r="O2" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.2</v>
-      </c>
+        <v>14.79290708414002</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="n">
-        <v>740</v>
+        <v>1550</v>
       </c>
       <c r="R2" t="n">
-        <v>-160</v>
+        <v>-600</v>
       </c>
       <c r="S2" t="n">
-        <v>130</v>
+        <v>400</v>
       </c>
       <c r="T2" t="n">
-        <v>0.25</v>
+        <v>-0.03</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.11</v>
+        <v>-0.19</v>
       </c>
       <c r="V2" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="W2" t="n">
-        <v>38.40000000000001</v>
+        <v>43</v>
       </c>
       <c r="X2" t="n">
-        <v>-3.9</v>
+        <v>-3</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>13.3</v>
+        <v>18.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.4</v>
+        <v>-1.2</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="AC2" t="n">
-        <v>15.2</v>
+        <v>23.7</v>
       </c>
       <c r="AD2" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AG2" t="n">
         <v>-0.1</v>
       </c>
-      <c r="AE2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>-0.03</v>
-      </c>
       <c r="AH2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AI2" t="inlineStr"/>
+        <v>0.06</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1e-05</v>
+      </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>1</v>
+      </c>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
+      <c r="AO2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GW190425-v1</t>
+          <t>GW190412-v3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GW190425</t>
+          <t>GW190412</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>O3_Discovery_Papers</t>
+          <t>GWTC-2</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1240215503</v>
+        <v>1239082262.2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/o3_eventdata_docs/</t>
+          <t>/GWTC-2/</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>http://gwosc.org/eventapi/json/O3_Discovery_Papers/GW190425/v1</t>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190412/v3</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.74</v>
+        <v>30.1</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.09</v>
+        <v>-5.1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.17</v>
+        <v>4.7</v>
       </c>
       <c r="K3" t="n">
-        <v>1.56</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.14</v>
+        <v>-0.9</v>
       </c>
       <c r="M3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="N3" t="n">
+        <v>19.6745876703935</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="n">
+        <v>740</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-170</v>
+      </c>
+      <c r="S3" t="n">
+        <v>140</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="V3" t="n">
         <v>0.08</v>
       </c>
-      <c r="N3" t="n">
-        <v>12.46</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-0.43</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>159</v>
-      </c>
-      <c r="R3" t="n">
-        <v>-72</v>
-      </c>
-      <c r="S3" t="n">
-        <v>69</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="U3" t="n">
-        <v>-0.013</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.015</v>
-      </c>
       <c r="W3" t="n">
-        <v>3.3</v>
+        <v>38.40000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.1</v>
+        <v>-3.7</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1</v>
+        <v>3.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.44</v>
+        <v>13.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.02</v>
+        <v>-0.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.02</v>
+        <v>0.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.4868</v>
+        <v>15.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.0003</v>
+        <v>-0.2</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0003</v>
+        <v>0.2</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AI3" t="inlineStr"/>
+        <v>0.03</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1e-05</v>
+      </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>1</v>
+      </c>
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
+      <c r="AO3" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GW190521-v2</t>
+          <t>GW190413_052954-v1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GW190521</t>
+          <t>GW190413_052954</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>O3_Discovery_Papers</t>
+          <t>GWTC-2</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1242442967.4</v>
+        <v>1239168612.5</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/o3_eventdata_docs/</t>
+          <t>/GWTC-2/</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>http://gwosc.org/eventapi/json/O3_Discovery_Papers/GW190521/v2</t>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190413_052954/v1</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>85</v>
+        <v>34.7</v>
       </c>
       <c r="I4" t="n">
-        <v>-14</v>
+        <v>-8.1</v>
       </c>
       <c r="J4" t="n">
-        <v>21</v>
+        <v>12.6</v>
       </c>
       <c r="K4" t="n">
-        <v>66</v>
+        <v>23.7</v>
       </c>
       <c r="L4" t="n">
-        <v>-18</v>
+        <v>-6.7</v>
       </c>
       <c r="M4" t="n">
-        <v>17</v>
+        <v>7.3</v>
       </c>
       <c r="N4" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="O4" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.4</v>
-      </c>
+        <v>8.555396161858269</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
-        <v>5300</v>
+        <v>3550</v>
       </c>
       <c r="R4" t="n">
-        <v>-2600</v>
+        <v>-1660</v>
       </c>
       <c r="S4" t="n">
-        <v>2400</v>
+        <v>2270</v>
       </c>
       <c r="T4" t="n">
-        <v>0.08</v>
+        <v>-0.01</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.36</v>
+        <v>-0.34</v>
       </c>
       <c r="V4" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="W4" t="n">
-        <v>151</v>
+        <v>58.40000000000001</v>
       </c>
       <c r="X4" t="n">
-        <v>-17</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="Y4" t="n">
-        <v>29</v>
+        <v>13.3</v>
       </c>
       <c r="Z4" t="n">
-        <v>64</v>
+        <v>24.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>-8</v>
+        <v>-4.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>117</v>
+        <v>39.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>-14</v>
+        <v>-6.6</v>
       </c>
       <c r="AE4" t="n">
-        <v>12</v>
+        <v>7.7</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.82</v>
+        <v>0.59</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0.34</v>
+        <v>-0.24</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AI4" t="inlineStr"/>
+        <v>0.29</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.0716832666370279</v>
+      </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>0.97779</v>
+      </c>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
+      <c r="AO4" t="n">
+        <v>56</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-9.199999999999999</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GW190814-v1</t>
+          <t>GW190413_134308-v1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GW190814</t>
+          <t>GW190413_134308</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -1035,122 +1053,128 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>O3_Discovery_Papers</t>
+          <t>GWTC-2</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1249852257</v>
+        <v>1239198206.7</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/o3_eventdata_docs/</t>
+          <t>/GWTC-2/</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>http://gwosc.org/eventapi/json/O3_Discovery_Papers/GW190814/v1</t>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190413_134308/v1</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>23.2</v>
+        <v>47.5</v>
       </c>
       <c r="I5" t="n">
-        <v>-1</v>
+        <v>-10.7</v>
       </c>
       <c r="J5" t="n">
-        <v>1.1</v>
+        <v>13.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.59</v>
+        <v>31.8</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.09</v>
+        <v>-10.8</v>
       </c>
       <c r="M5" t="n">
-        <v>0.08</v>
+        <v>11.7</v>
       </c>
       <c r="N5" t="n">
-        <v>25</v>
-      </c>
-      <c r="O5" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.1</v>
-      </c>
+        <v>9.970916853163908</v>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>241</v>
+        <v>4450</v>
       </c>
       <c r="R5" t="n">
-        <v>-45</v>
+        <v>-2120</v>
       </c>
       <c r="S5" t="n">
-        <v>41</v>
+        <v>2480</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.002</v>
+        <v>-0.03</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.061</v>
+        <v>-0.29</v>
       </c>
       <c r="V5" t="n">
-        <v>0.06</v>
+        <v>0.25</v>
       </c>
       <c r="W5" t="n">
-        <v>25.79</v>
+        <v>79.3</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.9</v>
+        <v>-11.9</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>17.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>6.09</v>
+        <v>33</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.06</v>
+        <v>-5.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.06</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.41</v>
+        <v>57</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.02</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.02</v>
+        <v>8.6</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.053</v>
+        <v>0.71</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0.01</v>
+        <v>-0.3</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="AI5" t="inlineStr"/>
+        <v>0.31</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.043657319879159</v>
+      </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>0.9849</v>
+      </c>
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
+      <c r="AO5" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-11.4</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>16.4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GW200105-v1</t>
+          <t>GW190421_213856-v1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GW200105_162426</t>
+          <t>GW190421_213856</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -1158,120 +1182,128 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>O3_Discovery_Papers</t>
+          <t>GWTC-2</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1262276684</v>
+        <v>1239917954.3</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/o3_eventdata_docs/</t>
+          <t>/GWTC-2/</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>http://gwosc.org/eventapi/json/O3_Discovery_Papers/GW200105_162426/v1</t>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190421_213856/v1</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8.9</v>
+        <v>41.3</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.5</v>
+        <v>-6.9</v>
       </c>
       <c r="J6" t="n">
-        <v>1.2</v>
+        <v>10.4</v>
       </c>
       <c r="K6" t="n">
-        <v>1.9</v>
+        <v>31.9</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.2</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3</v>
+        <v>8</v>
       </c>
       <c r="N6" t="n">
-        <v>13.9</v>
+        <v>10.55069569549375</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>280</v>
+        <v>2880</v>
       </c>
       <c r="R6" t="n">
-        <v>-110</v>
+        <v>-1380</v>
       </c>
       <c r="S6" t="n">
-        <v>110</v>
+        <v>1370</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.01</v>
+        <v>-0.06</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.15</v>
+        <v>-0.27</v>
       </c>
       <c r="V6" t="n">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="W6" t="n">
-        <v>10.8</v>
+        <v>73.19999999999999</v>
       </c>
       <c r="X6" t="n">
-        <v>-1.2</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.1</v>
+        <v>13.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>3.41</v>
+        <v>31.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-4.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.08</v>
+        <v>5.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>3.62</v>
+        <v>46.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.01</v>
+        <v>-6</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.01</v>
+        <v>6.6</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.06</v>
+        <v>0.49</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0.02</v>
+        <v>-0.21</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.36</v>
+        <v>0.0007738314255311</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>0.999768</v>
+      </c>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
+      <c r="AO6" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>-8.699999999999999</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GW200115-v1</t>
+          <t>GW190424_180648-v1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GW200115_042309</t>
+          <t>GW190424_180648</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -1279,110 +1311,4359 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>O3_Discovery_Papers</t>
+          <t>GWTC-2</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1263097407.7</v>
+        <v>1240164426.1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/o3_eventdata_docs/</t>
+          <t>/GWTC-2/</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>http://gwosc.org/eventapi/json/O3_Discovery_Papers/GW200115_042309/v1</t>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190424_180648/v1</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5.7</v>
+        <v>40.5</v>
       </c>
       <c r="I7" t="n">
-        <v>-2.1</v>
+        <v>-7.3</v>
       </c>
       <c r="J7" t="n">
-        <v>1.8</v>
+        <v>11.1</v>
       </c>
       <c r="K7" t="n">
-        <v>1.5</v>
+        <v>31.8</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.3</v>
+        <v>-7.7</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7</v>
+        <v>7.6</v>
       </c>
       <c r="N7" t="n">
-        <v>11.6</v>
+        <v>10.0939769744873</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="n">
-        <v>300</v>
+        <v>2200</v>
       </c>
       <c r="R7" t="n">
-        <v>-100</v>
+        <v>-1160</v>
       </c>
       <c r="S7" t="n">
-        <v>150</v>
+        <v>1580</v>
       </c>
       <c r="T7" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="W7" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-10.7</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-4.6</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-4.8</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AG7" t="n">
         <v>-0.19</v>
       </c>
-      <c r="U7" t="n">
-        <v>-0.35</v>
-      </c>
-      <c r="V7" t="n">
+      <c r="AH7" t="n">
         <v>0.23</v>
       </c>
-      <c r="W7" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="X7" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0.03</v>
-      </c>
       <c r="AI7" t="n">
-        <v>1e-05</v>
+        <v>0.7822864941910456</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>0.906492</v>
+      </c>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
+      <c r="AO7" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-10.1</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GW190425-v2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>GW190425</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>GWTC-2</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1240215503</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>/GWTC-2/</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190425/v2</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N8" t="n">
+        <v>13.02922972476558</v>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="n">
+        <v>160</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-70</v>
+      </c>
+      <c r="S8" t="n">
+        <v>70</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="W8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.0005999999999999999</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.0007518546981126</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GW190426_152155-v1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GW190426_152155</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>GWTC-2</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1240327333.3</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>/GWTC-2/</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190426_152155/v1</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10.12041364677255</v>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="n">
+        <v>370</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-160</v>
+      </c>
+      <c r="S9" t="n">
+        <v>180</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1.443741335492165</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GW190503_185404-v1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>GW190503_185404</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GWTC-2</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1240944862.3</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>/GWTC-2/</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190503_185404/v1</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-8.1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="K10" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-8</v>
+      </c>
+      <c r="M10" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="N10" t="n">
+        <v>12.20867275049248</v>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="n">
+        <v>1450</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-630</v>
+      </c>
+      <c r="S10" t="n">
+        <v>690</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="U10" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W10" t="n">
+        <v>71.69999999999999</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-8.300000000000001</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>-6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>-7.7</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GW190512_180714-v1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>GW190512_180714</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>GWTC-2</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1241719652.4</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>/GWTC-2/</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190512_180714/v1</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-5.8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N11" t="n">
+        <v>12.26449406234808</v>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="n">
+        <v>1430</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-550</v>
+      </c>
+      <c r="S11" t="n">
+        <v>550</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="W11" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GW190513_205428-v1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GW190513_205428</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>GWTC-2</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1241816086.8</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>/GWTC-2/</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190513_205428/v1</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-9.199999999999999</v>
+      </c>
+      <c r="J12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>18</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="N12" t="n">
+        <v>12.28987773592599</v>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="n">
+        <v>2060</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-800</v>
+      </c>
+      <c r="S12" t="n">
+        <v>880</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="W12" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-5.9</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>-5.8</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GW190514_065416-v1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GW190514_065416</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>GWTC-2</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1241852074.8</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>/GWTC-2/</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190514_065416/v1</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>39</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="J13" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K13" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-8.800000000000001</v>
+      </c>
+      <c r="M13" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8.304493549646196</v>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="n">
+        <v>4130</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-2170</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2650</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="W13" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-10.8</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-4.8</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>-7.7</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.5266876793595081</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>0.9595900000000001</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>-10.4</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>17.9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GW190517_055101-v1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GW190517_055101</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>GWTC-2</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1242107479.8</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>/GWTC-2/</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190517_055101/v1</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-7.6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-7.3</v>
+      </c>
+      <c r="M14" t="n">
+        <v>7</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10.68787163096563</v>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="n">
+        <v>1860</v>
+      </c>
+      <c r="R14" t="n">
+        <v>-840</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1620</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="U14" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="W14" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="X14" t="n">
+        <v>-9.6</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>-3.4</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>5.720513515363399e-05</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>-8.9</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GW190519_153544-v1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GW190519_153544</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>GWTC-2</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1242315362.4</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>/GWTC-2/</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190519_153544/v1</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>66</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-12</v>
+      </c>
+      <c r="J15" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K15" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-11.1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>11</v>
+      </c>
+      <c r="N15" t="n">
+        <v>13.95263057634653</v>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="n">
+        <v>2530</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-920</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1830</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W15" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-14.8</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>-7.1</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>-10.3</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>-13.8</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GW190521-v3</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GW190521</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>GWTC-2</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1242442967.4</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>/GWTC-2/</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190521/v3</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-18.9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K16" t="n">
+        <v>69</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-23.1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="N16" t="n">
+        <v>14.37604604889676</v>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="n">
+        <v>3920</v>
+      </c>
+      <c r="R16" t="n">
+        <v>-1950</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2190</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="U16" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="W16" t="n">
+        <v>164.3</v>
+      </c>
+      <c r="X16" t="n">
+        <v>-23.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>-10.6</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>114.8</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>-17.6</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.0002039635028</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>0.999624</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="n">
+        <v>156.3</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>-22.4</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>36.8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GW190521_074359-v1</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>GW190521_074359</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>GWTC-2</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1242459857.5</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>/GWTC-2/</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190521_074359/v1</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-4.8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K17" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-6.4</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="N17" t="n">
+        <v>24.67251912553722</v>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="n">
+        <v>1240</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-570</v>
+      </c>
+      <c r="S17" t="n">
+        <v>400</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="U17" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W17" t="n">
+        <v>75</v>
+      </c>
+      <c r="X17" t="n">
+        <v>-4.8</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="n">
+        <v>71</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>-4.4</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>GW190527_092055-v1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>GW190527_092055</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>GWTC-2</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1242984073.8</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>/GWTC-2/</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190527_092055/v1</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-9</v>
+      </c>
+      <c r="J18" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-8.1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="N18" t="n">
+        <v>8.867476217742222</v>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="n">
+        <v>2490</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-1240</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2480</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="W18" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-9.800000000000001</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0.0622703513141335</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>0.988513</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>-9.300000000000001</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>GW190602_175927-v1</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>GW190602_175927</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>GWTC-2</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1243533585.1</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>/GWTC-2/</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190602_175927/v1</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-13</v>
+      </c>
+      <c r="J19" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="K19" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-17.4</v>
+      </c>
+      <c r="M19" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="N19" t="n">
+        <v>12.13087548611321</v>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="n">
+        <v>2690</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-1120</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1790</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="U19" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="W19" t="n">
+        <v>116.9</v>
+      </c>
+      <c r="X19" t="n">
+        <v>-15.6</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>-13.7</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>1.147843725653695e-05</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>0.999994</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="n">
+        <v>110.9</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>-14.9</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>GW190620_030421-v1</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>GW190620_030421</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>GWTC-2</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1245035079.3</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>/GWTC-2/</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190620_030421/v1</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-12.7</v>
+      </c>
+      <c r="J20" t="n">
+        <v>16</v>
+      </c>
+      <c r="K20" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-12.3</v>
+      </c>
+      <c r="M20" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>10.91846314686192</v>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="n">
+        <v>2810</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-1310</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1680</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="U20" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="W20" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="X20" t="n">
+        <v>-13.1</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>-11.2</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.0029209383726319</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>0.999133</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>-12.1</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GW190630_185205-v1</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>GW190630_185205</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>GWTC-2</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1245955943.2</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>/GWTC-2/</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190630_185205/v1</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-5.6</v>
+      </c>
+      <c r="J21" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="K21" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-5.1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>15.64051208963232</v>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="n">
+        <v>890</v>
+      </c>
+      <c r="R21" t="n">
+        <v>-370</v>
+      </c>
+      <c r="S21" t="n">
+        <v>560</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="U21" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="W21" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="X21" t="n">
+        <v>-4.8</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>-4.6</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>GW190701_203306-v1</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>GW190701_203306</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>GWTC-2</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1246048404.6</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>/GWTC-2/</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190701_203306/v1</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-12</v>
+      </c>
+      <c r="M22" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="N22" t="n">
+        <v>11.58996006414267</v>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="n">
+        <v>2060</v>
+      </c>
+      <c r="R22" t="n">
+        <v>-730</v>
+      </c>
+      <c r="S22" t="n">
+        <v>760</v>
+      </c>
+      <c r="T22" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="U22" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="W22" t="n">
+        <v>94.69999999999999</v>
+      </c>
+      <c r="X22" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>-4.9</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>-8.1</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.0108613686053685</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>0.997879</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>-8.9</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>GW190706_222641-v1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>GW190706_222641</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>GWTC-2</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1246487219.3</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>/GWTC-2/</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190706_222641/v1</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>67</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-16.2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K23" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-13.3</v>
+      </c>
+      <c r="M23" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="N23" t="n">
+        <v>12.65361608395007</v>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="n">
+        <v>4420</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-1930</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2590</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="W23" t="n">
+        <v>105.2</v>
+      </c>
+      <c r="X23" t="n">
+        <v>-13.9</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>-7</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>-17.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="n">
+        <v>99</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>GW190707_093326-v1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>GW190707_093326</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>GWTC-2</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1246527224.2</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>/GWTC-2/</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190707_093326/v1</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N24" t="n">
+        <v>12.97817936002082</v>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="n">
+        <v>770</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-370</v>
+      </c>
+      <c r="S24" t="n">
+        <v>380</v>
+      </c>
+      <c r="T24" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="U24" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W24" t="n">
+        <v>20</v>
+      </c>
+      <c r="X24" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
+      <c r="AO24" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>GW190708_232457-v1</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>GW190708_232457</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>GWTC-2</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1246663515.4</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>/GWTC-2/</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190708_232457/v1</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K25" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>13.07130069939341</v>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="n">
+        <v>880</v>
+      </c>
+      <c r="R25" t="n">
+        <v>-390</v>
+      </c>
+      <c r="S25" t="n">
+        <v>330</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U25" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W25" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="X25" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>2.825250636480867e-05</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>0.999988</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>GW190719_215514-v1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>GW190719_215514</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>GWTC-2</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1247608532.9</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>/GWTC-2/</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190719_215514/v1</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-10.3</v>
+      </c>
+      <c r="J26" t="n">
+        <v>18</v>
+      </c>
+      <c r="K26" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-7.2</v>
+      </c>
+      <c r="M26" t="n">
+        <v>9</v>
+      </c>
+      <c r="N26" t="n">
+        <v>7.993907515410997</v>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="n">
+        <v>3940</v>
+      </c>
+      <c r="R26" t="n">
+        <v>-2000</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2590</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="U26" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="W26" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="X26" t="n">
+        <v>-10.7</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>-6.6</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>1.559222128828275</v>
+      </c>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="n">
+        <v>0.81555</v>
+      </c>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
+      <c r="AO26" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>-10.2</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>GW190720_000836-v1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>GW190720_000836</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>GWTC-2</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1247616534.7</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>/GWTC-2/</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190720_000836/v1</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J27" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="K27" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="N27" t="n">
+        <v>11.6960978153441</v>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="n">
+        <v>790</v>
+      </c>
+      <c r="R27" t="n">
+        <v>-320</v>
+      </c>
+      <c r="S27" t="n">
+        <v>690</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="U27" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="W27" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="X27" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
+      <c r="AO27" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>GW190727_060333-v1</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>GW190727_060333</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>GWTC-2</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1248242632</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>/GWTC-2/</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190727_060333/v1</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>38</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-6.2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-8.4</v>
+      </c>
+      <c r="M28" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>12.29941092425987</v>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="n">
+        <v>3300</v>
+      </c>
+      <c r="R28" t="n">
+        <v>-1500</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1540</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="U28" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="W28" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="X28" t="n">
+        <v>-8</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>-5.7</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>GW190728_064510-v1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>GW190728_064510</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>GWTC-2</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1248331528.5</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>/GWTC-2/</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190728_064510/v1</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="N29" t="n">
+        <v>13.64274847591606</v>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="n">
+        <v>870</v>
+      </c>
+      <c r="R29" t="n">
+        <v>-370</v>
+      </c>
+      <c r="S29" t="n">
+        <v>260</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="U29" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W29" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="X29" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>GW190731_140936-v1</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>GW190731_140936</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>GWTC-2</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1248617394.6</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>/GWTC-2/</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190731_140936/v1</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-9</v>
+      </c>
+      <c r="J30" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="M30" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="N30" t="n">
+        <v>8.460146466288636</v>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="n">
+        <v>3300</v>
+      </c>
+      <c r="R30" t="n">
+        <v>-1720</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2390</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="U30" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="W30" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="X30" t="n">
+        <v>-11.3</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>-5.2</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0.2058421231186779</v>
+      </c>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="n">
+        <v>0.9665010000000001</v>
+      </c>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>-10.8</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>GW190803_022701-v1</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>GW190803_022701</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>GWTC-2</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1248834439.9</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>/GWTC-2/</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190803_022701/v1</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-7</v>
+      </c>
+      <c r="J31" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="K31" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="M31" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="N31" t="n">
+        <v>8.970600357413534</v>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="n">
+        <v>3270</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-1580</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1950</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="U31" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="W31" t="n">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-9</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>-6.1</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0.0269343172504355</v>
+      </c>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="n">
+        <v>0.99411</v>
+      </c>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
+      <c r="AO31" t="n">
+        <v>61.7</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>GW190814-v2</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>GW190814</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>GWTC-2</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>1249852257</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>/GWTC-2/</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190814/v2</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N32" t="n">
+        <v>22.17523325999954</v>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="n">
+        <v>240</v>
+      </c>
+      <c r="R32" t="n">
+        <v>-50</v>
+      </c>
+      <c r="S32" t="n">
+        <v>40</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="W32" t="n">
+        <v>25.79</v>
+      </c>
+      <c r="X32" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
+      <c r="AO32" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>GW190828_063405-v1</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>GW190828_063405</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>GWTC-2</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1251009263.8</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>/GWTC-2/</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190828_063405/v1</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J33" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K33" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-4.8</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="N33" t="n">
+        <v>16.62960312214335</v>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="n">
+        <v>2130</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-930</v>
+      </c>
+      <c r="S33" t="n">
+        <v>660</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="U33" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="W33" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="X33" t="n">
+        <v>-4.8</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr"/>
+      <c r="AO33" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>-4.3</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>GW190828_065509-v1</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>GW190828_065509</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>GWTC-2</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1251010527.9</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>/GWTC-2/</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190828_065509/v1</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-7.2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>7</v>
+      </c>
+      <c r="K34" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N34" t="n">
+        <v>11.12790886853085</v>
+      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="n">
+        <v>1600</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-600</v>
+      </c>
+      <c r="S34" t="n">
+        <v>620</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="U34" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="W34" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="X34" t="n">
+        <v>-4.4</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr"/>
+      <c r="AO34" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>GW190909_114149-v1</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>GW190909_114149</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>GWTC-2</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>1252064527.7</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>/GWTC-2/</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190909_114149/v1</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-13.3</v>
+      </c>
+      <c r="J35" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="K35" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-12.7</v>
+      </c>
+      <c r="M35" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="N35" t="n">
+        <v>9.047895</v>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="n">
+        <v>3770</v>
+      </c>
+      <c r="R35" t="n">
+        <v>-2220</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3270</v>
+      </c>
+      <c r="T35" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="U35" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="W35" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="X35" t="n">
+        <v>-17.6</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>-12.4</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>1.111227661202648</v>
+      </c>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="n">
+        <v>0.886704</v>
+      </c>
+      <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr"/>
+      <c r="AO35" t="n">
+        <v>72</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>-16.8</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>GW190910_112807-v1</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>GW190910_112807</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>GWTC-2</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1252150105.3</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>/GWTC-2/</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190910_112807/v1</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-6.1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K36" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-7.2</v>
+      </c>
+      <c r="M36" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="N36" t="n">
+        <v>13.41737344451953</v>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="n">
+        <v>1460</v>
+      </c>
+      <c r="R36" t="n">
+        <v>-580</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1030</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U36" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="W36" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="X36" t="n">
+        <v>-9.1</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>1.88526945875307e-05</v>
+      </c>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="n">
+        <v>0.999988</v>
+      </c>
+      <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr"/>
+      <c r="AO36" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>-8.6</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>GW190915_235702-v1</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>GW190915_235702</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>GWTC-2</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>1252627040.7</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>/GWTC-2/</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190915_235702/v1</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-6.4</v>
+      </c>
+      <c r="J37" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-6.1</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="N37" t="n">
+        <v>13.07209167194663</v>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="n">
+        <v>1620</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-610</v>
+      </c>
+      <c r="S37" t="n">
+        <v>710</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U37" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W37" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="X37" t="n">
+        <v>-6.4</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>-3.9</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr"/>
+      <c r="AO37" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>-6</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>GW190924_021846-v1</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>GW190924_021846</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>GWTC-2</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>1253326744.8</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>/GWTC-2/</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190924_021846/v1</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7</v>
+      </c>
+      <c r="K38" t="n">
+        <v>5</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N38" t="n">
+        <v>13.15903752184739</v>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="n">
+        <v>570</v>
+      </c>
+      <c r="R38" t="n">
+        <v>-220</v>
+      </c>
+      <c r="S38" t="n">
+        <v>220</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="U38" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W38" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="X38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
+      <c r="AO38" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>GW190929_012149-v1</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>GW190929_012149</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>GWTC-2</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>1253755327.5</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>/GWTC-2/</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190929_012149/v1</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-33.2</v>
+      </c>
+      <c r="J39" t="n">
+        <v>33</v>
+      </c>
+      <c r="K39" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-10.6</v>
+      </c>
+      <c r="M39" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="N39" t="n">
+        <v>9.875628916044713</v>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="n">
+        <v>2130</v>
+      </c>
+      <c r="R39" t="n">
+        <v>-1050</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3650</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U39" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="W39" t="n">
+        <v>104.9</v>
+      </c>
+      <c r="X39" t="n">
+        <v>-25.2</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>-15.4</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.0201614435854915</v>
+      </c>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="n">
+        <v>0.9956930000000001</v>
+      </c>
+      <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="inlineStr"/>
+      <c r="AO39" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>-25.3</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>GW190930_133541-v1</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>GW190930_133541</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>GWTC-2</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>1253885759.2</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>/GWTC-2/</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>http://gwosc.org/eventapi/json/GWTC-2/GW190930_133541/v1</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="J40" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K40" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-3.3</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="N40" t="n">
+        <v>10.01932734846673</v>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="n">
+        <v>760</v>
+      </c>
+      <c r="R40" t="n">
+        <v>-320</v>
+      </c>
+      <c r="S40" t="n">
+        <v>360</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="U40" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="W40" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="X40" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0.0330921980265922</v>
+      </c>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr"/>
+      <c r="AO40" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>9.199999999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
